--- a/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-需求跟踪矩阵.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-需求跟踪矩阵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\软件需求规格说明书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE1E3D-35D4-426A-A4CD-515F8FB5B9C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D5C9D6-06E5-4FEC-A836-E3B7A66D6D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16344" windowHeight="8352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="174">
   <si>
     <t>所属迭代</t>
   </si>
   <si>
     <t>需求来源</t>
-  </si>
-  <si>
-    <t>第三次界面原型</t>
   </si>
   <si>
     <t>需求ID</t>
@@ -447,10 +444,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FR-19</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>群聊钓友</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -459,35 +452,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FR-18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>私聊钓友</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>查看历史约钓详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看历史约钓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>FR-17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史约钓详情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR-16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看历史约钓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR-17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR-15</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -633,6 +610,87 @@
   </si>
   <si>
     <t>登陆注册</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-21</t>
+  </si>
+  <si>
+    <t>FR-22</t>
+  </si>
+  <si>
+    <t>FR-23</t>
+  </si>
+  <si>
+    <t>FR-24</t>
+  </si>
+  <si>
+    <t>FR-25</t>
+  </si>
+  <si>
+    <t>主界面地图需要提供二维地图和卫星图，由按钮切换实现</t>
+  </si>
+  <si>
+    <t>消息状态需要有提示</t>
+  </si>
+  <si>
+    <t>发起约钓界面上需要增加交通工具的选择</t>
+  </si>
+  <si>
+    <t>约钓活动的公告每次编辑后都需要重新发送一次</t>
+  </si>
+  <si>
+    <t>上传照片（多选or单选，允许上传几张，使用收集相册，能否调用相机）</t>
+  </si>
+  <si>
+    <t>上传视频</t>
+  </si>
+  <si>
+    <t>上传语音</t>
+  </si>
+  <si>
+    <t>主界面的位置戳 附带显示该点的天气</t>
+  </si>
+  <si>
+    <t>第四版界面原型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三版界面原型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-57</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-58</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-59</t>
+  </si>
+  <si>
+    <t>FR-60</t>
+  </si>
+  <si>
+    <t>FR-61</t>
+  </si>
+  <si>
+    <t>FR-62</t>
+  </si>
+  <si>
+    <t>FR-63</t>
+  </si>
+  <si>
+    <t>FR-64</t>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户杨枨</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +903,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,8 +1101,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1173,74 +1237,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1282,6 +1278,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1411,17 +1528,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1433,53 +1550,80 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1836,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G59"/>
+  <dimension ref="B1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1854,1144 +1998,1304 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B65" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="20" t="s">
+    <row r="67" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B44" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B51" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B56" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>9</v>
+      <c r="E67" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-需求跟踪矩阵.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/PRD2018-G06-需求跟踪矩阵.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\PRD2018_G06\渔乐生活\受控文档\软件需求规格说明书\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D5C9D6-06E5-4FEC-A836-E3B7A66D6D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD76FB8-1800-40B0-95AD-4D3E9448DB56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16344" windowHeight="8352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="235">
   <si>
     <t>所属迭代</t>
   </si>
@@ -168,14 +168,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">发起约钓时，可以设置持续多天、可以设置多个地点(FR-43)【新建】【当前版本】
-发出约钓邀请(FR-26)【新建】【当前版本】
-发起约钓或加入约钓时，需要用户同意免责条款(FR-33)【新建】【当前版本】
-发表渔获(FR-9)【新建】【当前版本】
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">某渔具店差评过多或出现事故时，管理员需要做出相应措施，如使地图上的该点图标变色等(FR-50)【新建】【当前版本】
 </t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -216,10 +208,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FR-43、FR-26、FR-33、FR-9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">水军水评论或广告号，管理员需要删除相关评论并封号(FR-52)【新建】【当前版本】
 </t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -420,15 +408,6 @@
   </si>
   <si>
     <t>查看钓友</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR-22</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查看钓友的个人渔友圈(FR-22)【新建】【当前版本】
-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -530,15 +509,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FR-36</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">发表动态时，需要有仅好友可见、添加地理位置、添加天气(FR-36)【新建】【当前版本】
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>FR-8</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -668,29 +638,295 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>暂无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户杨枨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五版界面原型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户杨枨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-72</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-71</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-70</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-69</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>FR-59</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FR-60</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FR-61</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FR-62</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FR-63</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FR-64</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主界面地图显示需要筛选条件，全部钓点or查看好友的钓点or我建立的钓点</t>
+  </si>
+  <si>
+    <t>仅资深用户可以投诉</t>
+  </si>
+  <si>
+    <t>FR-77</t>
+  </si>
+  <si>
+    <t>FR-76</t>
+  </si>
+  <si>
+    <t>FR-75</t>
+  </si>
+  <si>
+    <t>FR-74</t>
+  </si>
+  <si>
+    <t>FR-73</t>
+  </si>
+  <si>
+    <t>在约钓开始前，允许群主增删人</t>
+  </si>
+  <si>
+    <t>在约钓开始前，允许群主手动提前结束、提前开始、取消活动</t>
+  </si>
+  <si>
+    <t>约钓推荐改为系统推荐</t>
+  </si>
+  <si>
+    <t>查看到各个渔友的注册时间</t>
+  </si>
+  <si>
+    <t>查看消息提示</t>
+  </si>
+  <si>
+    <t>附近渔友圈</t>
+  </si>
+  <si>
+    <t>FR-79</t>
+  </si>
+  <si>
+    <t>FR-78</t>
+  </si>
+  <si>
+    <t>渔友圈按热度、时间排序</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-88</t>
+  </si>
+  <si>
+    <t>FR-87</t>
+  </si>
+  <si>
+    <t>FR-86</t>
+  </si>
+  <si>
+    <t>FR-85</t>
+  </si>
+  <si>
+    <t>FR-84</t>
+  </si>
+  <si>
+    <t>FR-83</t>
+  </si>
+  <si>
+    <t>FR-82</t>
+  </si>
+  <si>
+    <t>FR-81</t>
+  </si>
+  <si>
+    <t>FR-80</t>
+  </si>
+  <si>
+    <t>游客查看附近钓点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓点详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看渔具店详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看单条动态详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看附近渔友圈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓友的个人渔友圈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看当前位置的天气</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓友</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看附近渔具店</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当主界面地图以卫星图方式显示时，图标颜色需要改变（否则看不清楚）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建钓点的用户自动成为该钓点的管理员</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增操作提交的信息允许提交人修改</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>约钓需要五个状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在发起约钓时，需要发起人选择参与人范围、分享可见的范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-89</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-90</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-91</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-92</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">发起约钓时，可以设置持续多天、可以设置多个地点(FR-43)【新建】【当前版本】
+发出约钓邀请(FR-26)【新建】【当前版本】
+在发起约钓时，需要发起人选择参与人范围、分享可见的范围(FR-72)【新建】【当前版本】
+发起约钓或加入约钓时，需要用户同意免责条款(FR-33)【新建】【当前版本】
+在约钓开始前，允许群主手动提前结束、提前开始、取消活动(FR-73)【新建】【当前版本】
+发表渔获(FR-9)【新建】【当前版本】
+消息状态需要有提示(FR-58)【新建】【当前版本】
+约钓活动的公告每次编辑后都需要重新发送一次(FR-60)【新建】【当前版本】
+约钓需要五个状态(FR-71)【新建】【当前版本】
+发起约钓界面上需要增加交通工具的选择(FR-59)【新建】【当前版本】
+在约钓开始前，允许群主增删人(FR-74)【新建】【当前版本】
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-43、FR-26、FR-33、FR-9、FR-58、FR-60、FR-71、FR-59、FR-74</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">发表动态时，需要有仅好友可见、添加地理位置、添加天气(FR-36)【新建】【当前版本】
+上传语音(FR-63)【新建】【当前版本】
+上传视频(FR-62)【新建】【当前版本】
+上传照片（多选or单选，允许上传几张，使用收集相册，能否调用相机）(FR-61)【新建】【当前版本】
+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-36、FR-63、FR-62、FR-61</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看钓友的个人渔友圈(FR-22)【新建】【当前版本】
+查看到各个渔友的注册时间(FR-76)【新建】【当前版本】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-22、FR-76</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>渔友圈按热度、时间排序(FR-79)【新建】【当前版本】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-79</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 仅资深用户可以投诉(FR-89)【新建】【当前版本】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-89</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>暂无</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>用户杨枨</t>
+    <t>投诉功能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五版界面原型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户杨枨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FR-83</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓点详情（FR-81）【新建】【当前版本】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看渔具店详情（FR-83）【新建】【当前版本】</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客查看钓友的个人渔友圈(FR-87)【新建】【当前版本】</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -886,14 +1122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -902,8 +1130,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,8 +1343,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1228,145 +1470,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1399,6 +1502,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1528,101 +1766,110 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1980,1321 +2227,1801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G67"/>
+  <dimension ref="B1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C21" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="F47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="E48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F50" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="F53" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="F55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B71" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="F78" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="F79" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F81" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="F83" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="224.4" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E85" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="F85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="F87" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="F89" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B47" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B57" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B65" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="B66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="22" t="s">
+      <c r="F91" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="26" t="s">
         <v>8</v>
       </c>
     </row>
